--- a/docs/Parts.xlsx
+++ b/docs/Parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\DeskCtrl\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3317D36B-A474-4473-8DA3-F33438C70D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2C8C39-2B9D-40A2-B46F-31707044EC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E454DD5-F6F4-47A3-B6A7-9B5A3C4C6705}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Część</t>
   </si>
@@ -49,7 +49,31 @@
     <t>https://allegro.pl/oferta/silnik-krokowy-nema23-2a-2-3n-m-czteroprzewodowy-13188200565</t>
   </si>
   <si>
-    <t>Silnik krokowy 57HS76-2004A08-D21</t>
+    <t>Mocowanie NEMA23</t>
+  </si>
+  <si>
+    <t>https://botland.com.pl/mocowania-silnikow/5407-mocowanie-stalowe-typu-l-do-silnika-krokowego-nema-23-5904422359614.html</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/kolo-pasowe-zebate-20t-gt2-os-8mm-pasek-6mm-14029655117</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/kolo-pasowe-zebate-30-zebow-gt2-otwor-6-35mm-12504951604</t>
+  </si>
+  <si>
+    <t>Koło pasowe GT2 20T oś 8mm</t>
+  </si>
+  <si>
+    <t>Koło pasowe GT2 30T oś 6,35mm</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/pas-zebaty-gt2-6mm-petla-pasek-232mm-13724852177</t>
+  </si>
+  <si>
+    <t>Pas zębaty GT2 6mm x 232mm</t>
+  </si>
+  <si>
+    <t>Silnik krokowy NEMA23 2A 2,3Nm  57HS76-2004A08-D21</t>
   </si>
 </sst>
 </file>
@@ -59,7 +83,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +96,15 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -99,10 +132,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -421,30 +455,30 @@
   <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" customWidth="1"/>
+    <col min="1" max="1" width="73" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="100.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1">
         <v>118</v>
@@ -454,16 +488,48 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7.99</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>14.9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6.45</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
@@ -630,7 +696,12 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{393C8DA5-6465-42ED-95DC-83D164A32716}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{C098F204-47E3-46E5-8E20-E1AC9291D8CE}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{A3C7B85D-8BB1-4741-B7D2-DE5B8B073EAF}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{5F5211EF-C687-4517-A492-0FC561ADF49E}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{8E44A5EE-8847-44E4-9F60-8E948F77F689}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>
--- a/docs/Parts.xlsx
+++ b/docs/Parts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\DeskCtrl\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2C8C39-2B9D-40A2-B46F-31707044EC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618434D9-F382-469E-9F43-876BE1ED7BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E454DD5-F6F4-47A3-B6A7-9B5A3C4C6705}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{6E454DD5-F6F4-47A3-B6A7-9B5A3C4C6705}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -20,22 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Część</t>
   </si>
@@ -74,6 +64,36 @@
   </si>
   <si>
     <t>Silnik krokowy NEMA23 2A 2,3Nm  57HS76-2004A08-D21</t>
+  </si>
+  <si>
+    <t>Zasilacz 42V 3A</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/zasilacz-do-hulajnogi-bolt-42v-3a-126w-12987344114</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/m5x30-sruba-oczkowa-naciagowa-nierdzewna-hak-2szt-11068802081</t>
+  </si>
+  <si>
+    <t>Nakrętka motylkowa M5</t>
+  </si>
+  <si>
+    <t>Śruba naciągowa M5x30</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/m5-nakretka-motylkowa-nierdzewna-315-inox-10szt-11415891467</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/m5-podkladka-nierdzewna-szeroka-9021-inox-100-szt-11064624098</t>
+  </si>
+  <si>
+    <t>Podkładka M5</t>
+  </si>
+  <si>
+    <t>Pręt imbusowy fi6</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/trzpien-dwustronny-imbusowy-z-kulka-6-mm-wera-12427750782</t>
   </si>
 </sst>
 </file>
@@ -455,7 +475,7 @@
   <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,19 +552,59 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3.91</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5.88</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
@@ -583,7 +643,10 @@
       <c r="B23" s="1"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
+      <c r="B24" s="1">
+        <f>SUM(B2:B23)</f>
+        <v>249.61</v>
+      </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>

--- a/docs/Parts.xlsx
+++ b/docs/Parts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\DeskCtrl\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618434D9-F382-469E-9F43-876BE1ED7BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51AF6DF-E2C7-4F59-9829-6480828B242E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{6E454DD5-F6F4-47A3-B6A7-9B5A3C4C6705}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Część</t>
   </si>
@@ -36,74 +36,52 @@
     <t>Link</t>
   </si>
   <si>
-    <t>https://allegro.pl/oferta/silnik-krokowy-nema23-2a-2-3n-m-czteroprzewodowy-13188200565</t>
-  </si>
-  <si>
     <t>Mocowanie NEMA23</t>
   </si>
   <si>
     <t>https://botland.com.pl/mocowania-silnikow/5407-mocowanie-stalowe-typu-l-do-silnika-krokowego-nema-23-5904422359614.html</t>
   </si>
   <si>
-    <t>https://allegro.pl/oferta/kolo-pasowe-zebate-20t-gt2-os-8mm-pasek-6mm-14029655117</t>
-  </si>
-  <si>
-    <t>https://allegro.pl/oferta/kolo-pasowe-zebate-30-zebow-gt2-otwor-6-35mm-12504951604</t>
-  </si>
-  <si>
-    <t>Koło pasowe GT2 20T oś 8mm</t>
-  </si>
-  <si>
-    <t>Koło pasowe GT2 30T oś 6,35mm</t>
-  </si>
-  <si>
-    <t>https://allegro.pl/oferta/pas-zebaty-gt2-6mm-petla-pasek-232mm-13724852177</t>
-  </si>
-  <si>
-    <t>Pas zębaty GT2 6mm x 232mm</t>
-  </si>
-  <si>
-    <t>Silnik krokowy NEMA23 2A 2,3Nm  57HS76-2004A08-D21</t>
-  </si>
-  <si>
-    <t>Zasilacz 42V 3A</t>
-  </si>
-  <si>
-    <t>https://allegro.pl/oferta/zasilacz-do-hulajnogi-bolt-42v-3a-126w-12987344114</t>
-  </si>
-  <si>
-    <t>https://allegro.pl/oferta/m5x30-sruba-oczkowa-naciagowa-nierdzewna-hak-2szt-11068802081</t>
-  </si>
-  <si>
-    <t>Nakrętka motylkowa M5</t>
-  </si>
-  <si>
-    <t>Śruba naciągowa M5x30</t>
-  </si>
-  <si>
-    <t>https://allegro.pl/oferta/m5-nakretka-motylkowa-nierdzewna-315-inox-10szt-11415891467</t>
-  </si>
-  <si>
-    <t>https://allegro.pl/oferta/m5-podkladka-nierdzewna-szeroka-9021-inox-100-szt-11064624098</t>
-  </si>
-  <si>
-    <t>Podkładka M5</t>
-  </si>
-  <si>
     <t>Pręt imbusowy fi6</t>
   </si>
   <si>
     <t>https://allegro.pl/oferta/trzpien-dwustronny-imbusowy-z-kulka-6-mm-wera-12427750782</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/silnik-krokowy-nema24-3-5a-4n-m-czteroprzewodowy-13189112298</t>
+  </si>
+  <si>
+    <t>Silnik krokowy Discotech 60HS100-3504A08-D24 NEMA24 3,5A 4,3Nm</t>
+  </si>
+  <si>
+    <t>Przegub kardana 34x14mm oś 8mm</t>
+  </si>
+  <si>
+    <t>https://abc-rc.pl/pl/products/przegub-kardana-34x14mm-na-os-8-8mm-do-budowy-robotow-projektow-diy-16491.html</t>
+  </si>
+  <si>
+    <t>Cena jedn</t>
+  </si>
+  <si>
+    <t>Ilość</t>
+  </si>
+  <si>
+    <t>Oś 8x100mm</t>
+  </si>
+  <si>
+    <t>https://abc-rc.pl/pl/products/oska-8x100mm-chromowana-walek-do-budowy-robotow-i-projektow-diy-16556.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +108,14 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -148,19 +134,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Dziesiętny" xfId="2" builtinId="3"/>
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Walutowy" xfId="3" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -472,299 +464,462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54252133-2C8C-47ED-B254-C457B9681A87}">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="73" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="100.7109375" customWidth="1"/>
+    <col min="2" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="100.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>118</v>
-      </c>
-      <c r="C2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <f>B2*C2</f>
+        <v>169</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>13.9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" ref="D3:D32" si="0">B3*C3</f>
+        <v>13.9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="0"/>
+        <v>28.4</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>6.6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1">
-        <v>7.99</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1">
-        <v>14.9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1">
-        <v>6.45</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1">
-        <v>44</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2.58</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1">
-        <v>3.91</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1">
-        <v>5.88</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
       </c>
       <c r="B11" s="1">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="4"/>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="4"/>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="4"/>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="4"/>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="4"/>
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="4"/>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="4"/>
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="4"/>
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="4"/>
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="4"/>
+      <c r="D20" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="4"/>
+      <c r="D21" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="4"/>
+      <c r="D22" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="1">
-        <f>SUM(B2:B23)</f>
-        <v>249.61</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="4"/>
+      <c r="D23" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="4"/>
+      <c r="D25" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="4"/>
+      <c r="D26" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="4"/>
+      <c r="D27" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="4"/>
+      <c r="D28" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="4"/>
+      <c r="D29" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="4"/>
+      <c r="D30" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="4"/>
+      <c r="D31" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="4"/>
+      <c r="D32" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="4"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="4"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="4"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="4"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="1"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="1"/>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="1"/>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="1"/>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="1"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="1"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="1"/>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="1"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{393C8DA5-6465-42ED-95DC-83D164A32716}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{C098F204-47E3-46E5-8E20-E1AC9291D8CE}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{A3C7B85D-8BB1-4741-B7D2-DE5B8B073EAF}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{5F5211EF-C687-4517-A492-0FC561ADF49E}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{8E44A5EE-8847-44E4-9F60-8E948F77F689}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{C098F204-47E3-46E5-8E20-E1AC9291D8CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/docs/Parts.xlsx
+++ b/docs/Parts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\DeskCtrl\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51AF6DF-E2C7-4F59-9829-6480828B242E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A976A2FF-926D-49F6-BE76-FD69EBCCC05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{6E454DD5-F6F4-47A3-B6A7-9B5A3C4C6705}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E454DD5-F6F4-47A3-B6A7-9B5A3C4C6705}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Część</t>
   </si>
@@ -42,9 +42,6 @@
     <t>https://botland.com.pl/mocowania-silnikow/5407-mocowanie-stalowe-typu-l-do-silnika-krokowego-nema-23-5904422359614.html</t>
   </si>
   <si>
-    <t>Pręt imbusowy fi6</t>
-  </si>
-  <si>
     <t>https://allegro.pl/oferta/trzpien-dwustronny-imbusowy-z-kulka-6-mm-wera-12427750782</t>
   </si>
   <si>
@@ -70,6 +67,21 @@
   </si>
   <si>
     <t>https://abc-rc.pl/pl/products/oska-8x100mm-chromowana-walek-do-budowy-robotow-i-projektow-diy-16556.html</t>
+  </si>
+  <si>
+    <t>Pręt imbusowy 6mm</t>
+  </si>
+  <si>
+    <t>Zasilacz Meanwell RSP-200-48</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/rsp-200-48-zasilacz-impulsowy-200w-48v-4-2a-14734278278</t>
+  </si>
+  <si>
+    <t>Sterownik Stepperonline DM542T</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/cyfrowy-sterownik-silnika-krokowego-1-0-4-2a-20-50vdc-stepperonline-y5vpsfn-14635614329</t>
   </si>
 </sst>
 </file>
@@ -467,7 +479,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,10 +494,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -496,7 +508,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>169</v>
@@ -509,7 +521,7 @@
         <v>169</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -532,7 +544,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>14.2</v>
@@ -545,12 +557,12 @@
         <v>28.4</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
         <v>6.6</v>
@@ -563,32 +575,61 @@
         <v>6.6</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="1">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
       <c r="D6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="4"/>
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1">
+        <v>218.26</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
       <c r="D7" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>218.26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="4"/>
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1">
+        <v>144</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>144</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -608,188 +649,116 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1">
-        <v>32</v>
-      </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="4"/>
       <c r="D26" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(D2:D25)</f>
+        <v>612.16</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D32" s="5"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>

--- a/docs/Parts.xlsx
+++ b/docs/Parts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\DeskCtrl\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A976A2FF-926D-49F6-BE76-FD69EBCCC05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1140AAA-6706-4EA6-B4E9-ECE81BD1AD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E454DD5-F6F4-47A3-B6A7-9B5A3C4C6705}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{6E454DD5-F6F4-47A3-B6A7-9B5A3C4C6705}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>Część</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Pręt imbusowy 6mm</t>
   </si>
   <si>
-    <t>Zasilacz Meanwell RSP-200-48</t>
-  </si>
-  <si>
     <t>https://allegro.pl/oferta/rsp-200-48-zasilacz-impulsowy-200w-48v-4-2a-14734278278</t>
   </si>
   <si>
@@ -82,6 +79,132 @@
   </si>
   <si>
     <t>https://allegro.pl/oferta/cyfrowy-sterownik-silnika-krokowego-1-0-4-2a-20-50vdc-stepperonline-y5vpsfn-14635614329</t>
+  </si>
+  <si>
+    <t>Napęd</t>
+  </si>
+  <si>
+    <t>Centralka</t>
+  </si>
+  <si>
+    <t>Panel</t>
+  </si>
+  <si>
+    <t>Zasilacz DC 48V Meanwell RSP-200-48</t>
+  </si>
+  <si>
+    <t>Zasilacz DC 5V Meanwell RSP-15-5</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/rs-15-5/zasilacze-do-wbudowania/mean-well/</t>
+  </si>
+  <si>
+    <t>Gniazdo AC</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/6100.3100/zlacza-iec-60320/schurter/</t>
+  </si>
+  <si>
+    <t>Board</t>
+  </si>
+  <si>
+    <t>Płytka uniwersalna RADEMACHER 811-1</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/rad-811-1/plytki-uniwersalne/rademacher/811-1/</t>
+  </si>
+  <si>
+    <t>Przycisk NINIGI PS-06B-MONO</t>
+  </si>
+  <si>
+    <t>Kabel USB-microUSB 10cm</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/ccp-musb2-ambm-0.1/kable-i-adaptery-usb/gembird/ccp-musb2-ambm-0-1m/</t>
+  </si>
+  <si>
+    <t>Dławnica BM4707N</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/bm4707n/dlawnice/bm-group/</t>
+  </si>
+  <si>
+    <t>Gniazdo JACK stereo</t>
+  </si>
+  <si>
+    <t>Obudowa GAINTA G512B-2$</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/g512b-2c/obudowy-z-panelem/gainta/g512b-2/</t>
+  </si>
+  <si>
+    <t>Tuleja ślizgowa IGUS GFM-0810-15</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/gfm-0810-15/lozyska-slizgowe/igus/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/jc-114/zlacza-jack/</t>
+  </si>
+  <si>
+    <t>Przełącznik AC</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/ra11131121/przelaczniki-typu-rocker/e-switch/</t>
+  </si>
+  <si>
+    <t>Kabel jack stereo 1m</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/ca1049/kable-audio-video-pozostale/logilink/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/ps-06b-mono/przelaczniki-standardowe/ninigi/</t>
+  </si>
+  <si>
+    <t>Goldpiny kątowe</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/zl211-40kg-s/listwy-i-gniazda-kolkowe/connfly/ds1022-1-40ruf11/</t>
+  </si>
+  <si>
+    <t>Kątownik gwintowany</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/4szt-katownik-montazowy-do-pcb-15x15x9-gwint-m3-14419487009</t>
+  </si>
+  <si>
+    <t>Gniazdo USB</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/gniazdo-tablicowe-usb-3-0-a-a-panelowe-rack-avssz-12089011742</t>
+  </si>
+  <si>
+    <t>SSR</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/przekaznik-polprzewodnikowy-ssr-fotek-25-da-14067065751</t>
+  </si>
+  <si>
+    <t>EEPROM 24AA01-I/P</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/pamiec-eeprom-1kb-i2c-24aa01-i-p-8412924090</t>
+  </si>
+  <si>
+    <t>Konwerter poziomów logicznych</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/konwerter-poziomow-logicznych-dwukierunkowy-msx-10910560260</t>
+  </si>
+  <si>
+    <t>ESP8266 NodeMCU V3</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/modul-wifi-esp8266-nodemcu-v3-arduino-wifi-13755809323</t>
+  </si>
+  <si>
+    <t>Obudowa plexi</t>
   </si>
 </sst>
 </file>
@@ -152,13 +275,16 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Dziesiętny" xfId="2" builtinId="3"/>
@@ -476,417 +602,721 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54252133-2C8C-47ED-B254-C457B9681A87}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73" customWidth="1"/>
-    <col min="2" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="100.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="73" customWidth="1"/>
+    <col min="3" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="100.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>169</v>
       </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5">
-        <f>B2*C2</f>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <f>C2*D2</f>
         <v>169</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>13.9</v>
       </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5">
-        <f t="shared" ref="D3:D32" si="0">B3*C3</f>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E33" si="0">C3*D3</f>
         <v>13.9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
         <v>14.2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="5">
         <f t="shared" si="0"/>
         <v>28.4</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>6.6</v>
       </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
         <f t="shared" si="0"/>
         <v>6.6</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
         <v>32</v>
       </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3.69</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>3.69</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1">
         <v>218.26</v>
       </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
         <f t="shared" si="0"/>
         <v>218.26</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1">
+        <v>41.43</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>41.43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="1">
+        <v>26</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="C11" s="1">
         <v>144</v>
       </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
         <f t="shared" si="0"/>
         <v>144</v>
       </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5">
-        <f>SUM(D2:D25)</f>
-        <v>612.16</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3.14</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <f>C12*D12</f>
+        <v>3.14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3.61</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <f>C13*D13</f>
+        <v>3.61</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="1">
+        <v>26.99</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <f>C14*D14</f>
+        <v>26.99</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5.12</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <f>C15*D15</f>
+        <v>5.12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <f>C16*D16</f>
+        <v>1.01</v>
+      </c>
+      <c r="F16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.74</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <f>C17*D17</f>
+        <v>2.74</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.21</v>
+      </c>
+      <c r="D19" s="4">
+        <v>12</v>
+      </c>
+      <c r="E19" s="5">
+        <f>C19*D19</f>
+        <v>26.52</v>
+      </c>
+      <c r="F19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5.21</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5">
+        <f>C20*D20</f>
+        <v>5.21</v>
+      </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1">
+        <v>15.9</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
+        <f>C21*D21</f>
+        <v>15.9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
+        <f>C22*D22</f>
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="1">
+        <v>9</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5">
+        <f>C23*D23</f>
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.87</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5">
+        <f>C24*D24</f>
+        <v>1.87</v>
+      </c>
+      <c r="F24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2.44</v>
+      </c>
+      <c r="D25" s="4">
+        <v>2</v>
+      </c>
+      <c r="E25" s="5">
+        <f>C25*D25</f>
+        <v>4.88</v>
+      </c>
+      <c r="F25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3.61</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5">
+        <f>C26*D26</f>
+        <v>3.61</v>
+      </c>
+      <c r="F26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="1">
+        <v>9.24</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5">
+        <f>C27*D27</f>
+        <v>9.24</v>
+      </c>
+      <c r="F27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5.36</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5">
+        <f>C28*D28</f>
+        <v>5.36</v>
+      </c>
+      <c r="F28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="1"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5">
+        <f>SUM(E2:E29)</f>
+        <v>810.48</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="1"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="1"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C41" s="1"/>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C42" s="1"/>
-      <c r="D42" s="5"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C43" s="1"/>
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C44" s="1"/>
-      <c r="D44" s="5"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="1"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="1"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="1"/>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="1"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="1"/>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="1"/>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="1"/>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A19"/>
+    <mergeCell ref="A20:A24"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{C098F204-47E3-46E5-8E20-E1AC9291D8CE}"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{C098F204-47E3-46E5-8E20-E1AC9291D8CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>

--- a/docs/Parts.xlsx
+++ b/docs/Parts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\DeskCtrl\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1140AAA-6706-4EA6-B4E9-ECE81BD1AD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6B032D-21D4-46DB-B52D-37186C62C830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{6E454DD5-F6F4-47A3-B6A7-9B5A3C4C6705}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E454DD5-F6F4-47A3-B6A7-9B5A3C4C6705}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>Część</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>Obudowa plexi</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/plexi-pleksa-3mm-czarna-ciecie-laserem-na-wymiar-12304721892</t>
+  </si>
+  <si>
+    <t>SUMA:</t>
   </si>
 </sst>
 </file>
@@ -275,7 +281,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -284,6 +290,10 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -605,7 +615,7 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E33" si="0">C3*D3</f>
+        <f t="shared" ref="E3:E11" si="0">C3*D3</f>
         <v>13.9</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -839,7 +849,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="5">
-        <f>C12*D12</f>
+        <f t="shared" ref="E12:E18" si="1">C12*D12</f>
         <v>3.14</v>
       </c>
       <c r="F12" t="s">
@@ -858,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="5">
-        <f>C13*D13</f>
+        <f t="shared" si="1"/>
         <v>3.61</v>
       </c>
       <c r="F13" t="s">
@@ -877,7 +887,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="5">
-        <f>C14*D14</f>
+        <f t="shared" si="1"/>
         <v>26.99</v>
       </c>
       <c r="F14" t="s">
@@ -896,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="5">
-        <f>C15*D15</f>
+        <f t="shared" si="1"/>
         <v>5.12</v>
       </c>
       <c r="F15" t="s">
@@ -915,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="5">
-        <f>C16*D16</f>
+        <f t="shared" si="1"/>
         <v>1.01</v>
       </c>
       <c r="F16" t="s">
@@ -934,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="5">
-        <f>C17*D17</f>
+        <f t="shared" si="1"/>
         <v>2.74</v>
       </c>
       <c r="F17" t="s">
@@ -946,6 +956,20 @@
       <c r="B18" t="s">
         <v>59</v>
       </c>
+      <c r="C18" s="1">
+        <f>70+24</f>
+        <v>94</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
@@ -959,7 +983,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="5">
-        <f>C19*D19</f>
+        <f t="shared" ref="E19:E28" si="2">C19*D19</f>
         <v>26.52</v>
       </c>
       <c r="F19" t="s">
@@ -980,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="5">
-        <f>C20*D20</f>
+        <f t="shared" si="2"/>
         <v>5.21</v>
       </c>
       <c r="F20" t="s">
@@ -999,7 +1023,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="5">
-        <f>C21*D21</f>
+        <f t="shared" si="2"/>
         <v>15.9</v>
       </c>
       <c r="F21" t="s">
@@ -1018,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="5">
-        <f>C22*D22</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F22" t="s">
@@ -1037,7 +1061,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="5">
-        <f>C23*D23</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="F23" t="s">
@@ -1056,7 +1080,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="5">
-        <f>C24*D24</f>
+        <f t="shared" si="2"/>
         <v>1.87</v>
       </c>
       <c r="F24" t="s">
@@ -1077,7 +1101,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="5">
-        <f>C25*D25</f>
+        <f t="shared" si="2"/>
         <v>4.88</v>
       </c>
       <c r="F25" t="s">
@@ -1096,7 +1120,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="5">
-        <f>C26*D26</f>
+        <f t="shared" si="2"/>
         <v>3.61</v>
       </c>
       <c r="F26" t="s">
@@ -1115,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="5">
-        <f>C27*D27</f>
+        <f t="shared" si="2"/>
         <v>9.24</v>
       </c>
       <c r="F27" t="s">
@@ -1134,7 +1158,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="5">
-        <f>C28*D28</f>
+        <f t="shared" si="2"/>
         <v>5.36</v>
       </c>
       <c r="F28" t="s">
@@ -1146,13 +1170,21 @@
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
     </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="7">
+        <f>SUM(E2:E29)</f>
+        <v>904.48</v>
+      </c>
+    </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" s="1"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="5">
-        <f>SUM(E2:E29)</f>
-        <v>810.48</v>
-      </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35" s="1"/>
@@ -1309,11 +1341,12 @@
       <c r="D68" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A19"/>
     <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A30:D30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" xr:uid="{C098F204-47E3-46E5-8E20-E1AC9291D8CE}"/>
